--- a/Trabajo_3/errores.xlsx
+++ b/Trabajo_3/errores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49BDA3A-D993-4854-9D03-CDAEFC9380EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52205E0D-979A-4E4F-8870-72F3F53F0B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511032B3-9C90-44FC-B2B6-BC9716CF19A3}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +430,62 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.52</v>
+      </c>
+      <c r="B5">
+        <v>2.52</v>
+      </c>
+      <c r="C5">
+        <v>2.52</v>
+      </c>
+      <c r="D5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.22</v>
+      </c>
+      <c r="B6">
+        <v>1.22</v>
+      </c>
+      <c r="C6">
+        <v>1.22</v>
+      </c>
+      <c r="D6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.85</v>
+      </c>
+      <c r="B7">
+        <v>3.85</v>
+      </c>
+      <c r="C7">
+        <v>3.85</v>
+      </c>
+      <c r="D7">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.94</v>
+      </c>
+      <c r="B8">
+        <v>1.94</v>
+      </c>
+      <c r="C8">
+        <v>1.94</v>
+      </c>
+      <c r="D8">
+        <v>1.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Trabajo_3/errores.xlsx
+++ b/Trabajo_3/errores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52205E0D-979A-4E4F-8870-72F3F53F0B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0BAE4-82B1-49A4-859D-2CD0BE94D9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,13 +393,13 @@
         <v>9.9400000000000002E-2</v>
       </c>
       <c r="B2">
-        <v>9.9400000000000002E-2</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="C2">
-        <v>9.9400000000000002E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D2">
-        <v>9.9400000000000002E-2</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -407,13 +407,13 @@
         <v>5.42</v>
       </c>
       <c r="B3">
-        <v>5.42</v>
+        <v>2.31</v>
       </c>
       <c r="C3">
-        <v>5.42</v>
+        <v>8.92</v>
       </c>
       <c r="D3">
-        <v>5.42</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -421,13 +421,13 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="B4">
-        <v>0.68600000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="C4">
-        <v>0.68600000000000005</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
-        <v>0.68600000000000005</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -435,13 +435,13 @@
         <v>2.52</v>
       </c>
       <c r="B5">
-        <v>2.52</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C5">
-        <v>2.52</v>
+        <v>3.31</v>
       </c>
       <c r="D5">
-        <v>2.52</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -449,13 +449,13 @@
         <v>1.22</v>
       </c>
       <c r="B6">
-        <v>1.22</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C6">
-        <v>1.22</v>
+        <v>2.92</v>
       </c>
       <c r="D6">
-        <v>1.22</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -463,13 +463,13 @@
         <v>3.85</v>
       </c>
       <c r="B7">
-        <v>3.85</v>
+        <v>1.72</v>
       </c>
       <c r="C7">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="D7">
-        <v>3.85</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,13 +477,13 @@
         <v>1.94</v>
       </c>
       <c r="B8">
-        <v>1.94</v>
+        <v>2.97</v>
       </c>
       <c r="C8">
-        <v>1.94</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D8">
-        <v>1.94</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/errores.xlsx
+++ b/Trabajo_3/errores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S2/GGE/Trabajos_GGE/Trabajo_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0BAE4-82B1-49A4-859D-2CD0BE94D9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{E7A0BAE4-82B1-49A4-859D-2CD0BE94D9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8BBC812E-626F-40A9-86C7-9E319026B7C5}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja1" sheetId="4" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,9 +386,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.9400000000000002E-2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.42</v>
       </c>
@@ -416,7 +416,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.68600000000000005</v>
       </c>
@@ -430,7 +430,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.52</v>
       </c>
@@ -444,7 +444,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.85</v>
       </c>
@@ -472,7 +472,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.94</v>
       </c>

--- a/Trabajo_3/errores.xlsx
+++ b/Trabajo_3/errores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S2/GGE/Trabajos_GGE/Trabajo_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{E7A0BAE4-82B1-49A4-859D-2CD0BE94D9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8BBC812E-626F-40A9-86C7-9E319026B7C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033F4584-91B6-43D6-82B3-045328C21080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2976" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja1" sheetId="4" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -380,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511032B3-9C90-44FC-B2B6-BC9716CF19A3}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9.9400000000000002E-2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.42</v>
       </c>
@@ -416,7 +416,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.68600000000000005</v>
       </c>
@@ -430,7 +430,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.52</v>
       </c>
@@ -444,7 +444,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.85</v>
       </c>
@@ -472,7 +472,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.94</v>
       </c>
@@ -484,6 +484,59 @@
       </c>
       <c r="D8">
         <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.33</v>
+      </c>
+      <c r="B9">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C9">
+        <v>372</v>
+      </c>
+      <c r="D9">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.05</v>
+      </c>
+      <c r="B10">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>2.34</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.39</v>
+      </c>
+      <c r="B11">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C11">
+        <v>4.3</v>
+      </c>
+      <c r="D11">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.75</v>
+      </c>
+      <c r="B12">
+        <v>1.7</v>
+      </c>
+      <c r="D12">
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_3/errores.xlsx
+++ b/Trabajo_3/errores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033F4584-91B6-43D6-82B3-045328C21080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF23341-C844-4C10-9657-1B76A0CADB60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2976" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6384" yWindow="1764" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja1" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>1d2r analitico</t>
+  </si>
+  <si>
+    <t>1d2r numerico</t>
+  </si>
+  <si>
+    <t>2d2r analitico</t>
+  </si>
+  <si>
+    <t>2d2r numerico</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,20 +397,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511032B3-9C90-44FC-B2B6-BC9716CF19A3}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9.9400000000000002E-2</v>
       </c>
       <c r="B2">
-        <v>0.73699999999999999</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="C2">
         <v>0.44500000000000001</v>
@@ -407,7 +438,7 @@
         <v>5.42</v>
       </c>
       <c r="B3">
-        <v>2.31</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="C3">
         <v>8.92</v>
@@ -421,7 +452,7 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="B4">
-        <v>0.52400000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
@@ -435,7 +466,7 @@
         <v>2.52</v>
       </c>
       <c r="B5">
-        <v>0.17199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C5">
         <v>3.31</v>
@@ -449,7 +480,7 @@
         <v>1.22</v>
       </c>
       <c r="B6">
-        <v>0.27700000000000002</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C6">
         <v>2.92</v>
@@ -463,7 +494,7 @@
         <v>3.85</v>
       </c>
       <c r="B7">
-        <v>1.72</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C7">
         <v>3.77</v>
@@ -477,7 +508,7 @@
         <v>1.94</v>
       </c>
       <c r="B8">
-        <v>2.97</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C8">
         <v>2.4300000000000002</v>
@@ -491,7 +522,7 @@
         <v>1.33</v>
       </c>
       <c r="B9">
-        <v>0.70399999999999996</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="C9">
         <v>372</v>
@@ -505,7 +536,7 @@
         <v>3.05</v>
       </c>
       <c r="B10">
-        <v>0.89100000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C10">
         <v>2.34</v>
@@ -519,7 +550,7 @@
         <v>3.39</v>
       </c>
       <c r="B11">
-        <v>0.98299999999999998</v>
+        <v>0.91</v>
       </c>
       <c r="C11">
         <v>4.3</v>
@@ -533,7 +564,7 @@
         <v>1.75</v>
       </c>
       <c r="B12">
-        <v>1.7</v>
+        <v>2.161</v>
       </c>
       <c r="D12">
         <v>2.08</v>
